--- a/plc_data.xlsx
+++ b/plc_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Timestamp</t>
   </si>
@@ -155,6 +155,42 @@
   </si>
   <si>
     <t>2024-06-07T14:10:37-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:20:46-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:20:48-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:23:16-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:23:34-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:23:35-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:23:37-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:36:55-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:36:58-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:37:00-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:42:00-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:42:02-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:42:04-04:00</t>
   </si>
 </sst>
 </file>
@@ -840,6 +876,102 @@
         <v>5169</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5182</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5189</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5190</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/plc_data.xlsx
+++ b/plc_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Timestamp</t>
   </si>
@@ -191,6 +191,111 @@
   </si>
   <si>
     <t>2024-06-07T15:42:04-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T16:09:46-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T16:09:50-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T16:09:53-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:06:48-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:06:51-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:06:59-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:07:02-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:11:22-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:12:33-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:12:35-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:12:39-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:12:40-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:12:43-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:12:44-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:12:46-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:12:47-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:12:48-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:13:20-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:13:21-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:13:22-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:16:42-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:16:45-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:16:47-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:17:32-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:17:44-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:17:47-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:25:31-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:26:20-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:26:21-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:26:22-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:26:25-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:26:33-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:26:37-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:26:40-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-10T08:26:47-04:00</t>
   </si>
 </sst>
 </file>
@@ -972,6 +1077,302 @@
         <v>5190</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>5215</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>5227</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>5241</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>